--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559303.5105764102</v>
+        <v>556822.5907509503</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.60278486879037</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545851</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579959</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104949</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.600494864208294</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>90.12097307877028</v>
       </c>
       <c r="G13" t="n">
-        <v>48.71425401378775</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292099</v>
+        <v>62.01200608292087</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5365980806988162</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>86.66051676164355</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579961</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104949</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>107.0733734269369</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271175</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292099</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>111.9348537131769</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577617</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477346</v>
+        <v>312.8128825920919</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T17" t="n">
-        <v>72.31625413219338</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085025</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411908</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432839</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308721</v>
+        <v>275.0274093258345</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.0890643413379</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477346</v>
+        <v>3.974324134330803</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245694</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>243.571457574311</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290895</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D22" t="n">
-        <v>137.119884007455</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085029</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721236</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330934</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086019</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4571372041192</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432843</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181091</v>
+        <v>240.6420543130723</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245697</v>
+        <v>35.29247858245678</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>155.7512320878701</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249347</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085029</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721236</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330934</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086019</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411921</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432845</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S25" t="n">
-        <v>115.873742125723</v>
+        <v>178.2734363206866</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.316554999894</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833183</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3323,13 +3323,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>197.992161178384</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>90.95618068285765</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092329</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060973</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
@@ -3721,13 +3721,13 @@
         <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G43" t="n">
-        <v>110.5480262953172</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,10 +3961,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>90.95618068285802</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>232.0663560601686</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2154.8229678559</v>
+        <v>1500.637597194506</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175212</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828185</v>
+        <v>827.7935161667913</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645003</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329911</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939509</v>
@@ -5060,13 +5060,13 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
         <v>3063.721540039935</v>
@@ -5075,16 +5075,16 @@
         <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2837.383130573496</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2511.806542563105</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.532851561749</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.532851561749</v>
+        <v>1860.045369998904</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>619.1101211992284</v>
+        <v>418.3126375609365</v>
       </c>
       <c r="C13" t="n">
-        <v>477.3660055310451</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="D13" t="n">
-        <v>354.4414333784329</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="E13" t="n">
-        <v>354.4414333784329</v>
+        <v>276.5685218927537</v>
       </c>
       <c r="F13" t="n">
-        <v>234.7435531402461</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546021</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
         <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162334</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991584</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376951</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430788</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535511</v>
+        <v>967.1670306535525</v>
       </c>
       <c r="X13" t="n">
-        <v>967.1670306535511</v>
+        <v>766.3695470152589</v>
       </c>
       <c r="Y13" t="n">
-        <v>773.5665187697446</v>
+        <v>572.7690351314525</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1824.291354772205</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1482.520905091517</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>808.2333626103888</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>720.6974870935771</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597803</v>
+        <v>336.9036495636933</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645003</v>
+        <v>336.9036495636933</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299114</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039937</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573497</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.51231048965</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.51231048965</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.238619488293</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.291354772205</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.7584402581855</v>
+        <v>418.3126375609365</v>
       </c>
       <c r="C16" t="n">
-        <v>619.0143245900022</v>
+        <v>310.1577149074649</v>
       </c>
       <c r="D16" t="n">
-        <v>496.08975243739</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>375.3687261147205</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>255.6708458765337</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765337</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.94255636106</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1605.729845190396</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1378.237424244232</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1116.012321466995</v>
+        <v>967.1670306535525</v>
       </c>
       <c r="X16" t="n">
-        <v>915.2148378287015</v>
+        <v>766.3695470152588</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.2148378287015</v>
+        <v>572.7690351314525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1830.862197398325</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934038</v>
+        <v>1536.541380665712</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1252.917382266758</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>941.7708298763109</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>605.4266252945004</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3216.910131998414</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3038.021355480048</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2781.600168344275</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398325</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872292</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671191</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625803</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879841</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604119</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1647.936691865763</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817305</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.128543609672</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.696340267699</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.375523535084</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104326</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446368</v>
+        <v>629.8126900199854</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628261</v>
+        <v>293.4684854381753</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281943</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X20" t="n">
-        <v>2199.152111892039</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y20" t="n">
-        <v>1883.654480124024</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235542</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034442</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625805</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879843</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978708</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803866</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604121</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5944,16 +5944,16 @@
         <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817302</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.158537745997</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349348</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531242</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059184</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713544</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1383.526753844412</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329807</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.333216384079</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893067</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124122</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859013</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932666</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796892</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681292</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913277</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714071</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902801</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.022053929029</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235734</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504585</v>
       </c>
       <c r="G24" t="n">
         <v>182.886940783077</v>
@@ -6063,16 +6063,16 @@
         <v>92.38504642094449</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243131</v>
       </c>
       <c r="K24" t="n">
-        <v>405.319223293447</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061125</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6081,10 +6081,10 @@
         <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138529</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574184</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528796</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782833</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881698</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706856</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634024</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248244</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667906</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663397</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892618</v>
+        <v>1623.942389892617</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>982.4929116259233</v>
       </c>
       <c r="X25" t="n">
-        <v>892.175055072029</v>
+        <v>829.145060935703</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362958</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467785</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1635.769886219269</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2169.301790891193</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2716.080607949976</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,43 +6461,43 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>291.5583700766102</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>625.3777437664567</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1076.411957014865</v>
+        <v>1706.925601880498</v>
       </c>
       <c r="M29" t="n">
-        <v>1609.94386168679</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N29" t="n">
-        <v>2156.722678745572</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,25 +6698,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>282.5873354070219</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>937.3106675423214</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1388.34488079073</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1921.876785462655</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2468.655602521437</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>2971.628073400774</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6856,7 +6856,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
         <v>423.267502797314</v>
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,10 +6935,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6968,16 +6968,16 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>598.2565075725905</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>527.991759218527</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>476.5465543800346</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>427.3048953714849</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>379.0863824474179</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7096,16 +7096,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
         <v>1617.076751502319</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758176</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1222.089968759808</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W37" t="n">
-        <v>932.6727987228476</v>
+        <v>835.3471215411927</v>
       </c>
       <c r="X37" t="n">
-        <v>803.3546823986736</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>681.2335378289869</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,16 +7172,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7202,22 +7202,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7251,10 +7251,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389145</v>
+        <v>444.8926667912274</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110076</v>
+        <v>374.6279184371638</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725152</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639655</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660552</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146175</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891715</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649976</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953108</v>
+        <v>527.8696970476237</v>
       </c>
     </row>
     <row r="41">
@@ -7412,13 +7412,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389145</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C43" t="n">
-        <v>571.970787584851</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725152</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639655</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>225.7225416660552</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150364</v>
       </c>
       <c r="X43" t="n">
-        <v>946.005145338841</v>
+        <v>804.7004397908624</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691542</v>
+        <v>583.9078606473323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,52 +7646,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>598.2565075725905</v>
+        <v>642.2355359389143</v>
       </c>
       <c r="C46" t="n">
-        <v>429.3203246446836</v>
+        <v>473.2993530110074</v>
       </c>
       <c r="D46" t="n">
-        <v>377.8751198061913</v>
+        <v>421.8541481725151</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6334607976415</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735745</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7834,22 +7834,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1476.774456965695</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.761403333652</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.015667870534</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X46" t="n">
-        <v>1000.69755154636</v>
+        <v>847.3337107649974</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.9049724028303</v>
+        <v>725.2125661953106</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430639</v>
+        <v>157.235310843064</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729019</v>
+        <v>184.4039433729022</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389618</v>
+        <v>191.4948909389622</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333083</v>
+        <v>181.0856325333087</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830257</v>
+        <v>179.3553748830261</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384005</v>
+        <v>182.8301554384009</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586598</v>
+        <v>190.8908035586601</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266134</v>
+        <v>192.0103836266136</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875979</v>
+        <v>112.656200187598</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372541</v>
+        <v>113.6031223372543</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672284</v>
+        <v>105.9629718672287</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253605</v>
+        <v>104.1013981253608</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677779</v>
+        <v>92.3024655867781</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359747</v>
+        <v>106.882960835975</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798333</v>
+        <v>105.3113487798335</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615464</v>
+        <v>120.8212784615465</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564664</v>
+        <v>116.1755252564665</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085234</v>
+        <v>119.1996074085235</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140784</v>
+        <v>108.4284123140785</v>
       </c>
       <c r="O10" t="n">
-        <v>120.669460053093</v>
+        <v>120.6694600530932</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662709</v>
+        <v>122.5080856662711</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>339.8144253784334</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>61.78301484554913</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>209.1187564935606</v>
       </c>
       <c r="O26" t="n">
-        <v>137.5908801368505</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.74982042514705</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>334.4868774152274</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>12.68816924374474</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>65.51711806374215</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.2109102075639</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>357.7172972047188</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.37992835703448</v>
       </c>
       <c r="G13" t="n">
-        <v>90.39140765811413</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271175</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.2262969528578</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>268.3497067234917</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.25330108456442</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>147.3568379053096</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>24.21355985564253</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>57.70643280170784</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149641</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134036</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>52.26435989843918</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888866.7683162412</v>
+        <v>888866.7683162414</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>966855.7527261152</v>
+        <v>966855.7527261151</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.9862943713</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
         <v>450601.9862943711</v>
@@ -26320,7 +26320,7 @@
         <v>450614.2683932705</v>
       </c>
       <c r="E2" t="n">
-        <v>401247.0004977358</v>
+        <v>401247.0004977357</v>
       </c>
       <c r="F2" t="n">
         <v>401247.0004977359</v>
@@ -26338,13 +26338,13 @@
         <v>451572.9734253561</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="N2" t="n">
         <v>451572.9734253557</v>
@@ -26353,7 +26353,7 @@
         <v>451572.9734253559</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253557</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552094</v>
+        <v>59764.55367552047</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163634</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487425</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983361</v>
+        <v>22821.46782983389</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179677</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913883</v>
+        <v>439568.9169913885</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367426</v>
+        <v>41244.04987367443</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367426</v>
+        <v>41244.04987367443</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511651</v>
+        <v>78272.21023511665</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511649</v>
+        <v>78272.21023511662</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057463</v>
+        <v>93189.85962057461</v>
       </c>
       <c r="J4" t="n">
+        <v>93063.75099226074</v>
+      </c>
+      <c r="K4" t="n">
         <v>93063.7509922607</v>
       </c>
-      <c r="K4" t="n">
-        <v>93063.75099226071</v>
-      </c>
       <c r="L4" t="n">
-        <v>93063.75099226068</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820626</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="N4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186631</v>
+        <v>35148.9054318663</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184213</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46176.34480773852</v>
+        <v>-46180.75838560675</v>
       </c>
       <c r="C6" t="n">
-        <v>-46176.34480773863</v>
+        <v>-46180.75838560681</v>
       </c>
       <c r="D6" t="n">
-        <v>-83868.107705505</v>
+        <v>-83872.46545565058</v>
       </c>
       <c r="E6" t="n">
-        <v>-805805.5119043988</v>
+        <v>-806034.2663267974</v>
       </c>
       <c r="F6" t="n">
-        <v>283433.4602592352</v>
+        <v>283204.7058368367</v>
       </c>
       <c r="G6" t="n">
-        <v>240620.9890303891</v>
+        <v>240554.7116588447</v>
       </c>
       <c r="H6" t="n">
-        <v>278201.0983252634</v>
+        <v>278134.8209537187</v>
       </c>
       <c r="I6" t="n">
-        <v>249825.1176731053</v>
+        <v>249825.117673105</v>
       </c>
       <c r="J6" t="n">
-        <v>243721.8477364926</v>
+        <v>243721.8477364922</v>
       </c>
       <c r="K6" t="n">
-        <v>269131.2807582893</v>
+        <v>269131.2807582894</v>
       </c>
       <c r="L6" t="n">
-        <v>231551.1714634154</v>
+        <v>231551.1714634153</v>
       </c>
       <c r="M6" t="n">
-        <v>73482.48927817527</v>
+        <v>73482.48927817518</v>
       </c>
       <c r="N6" t="n">
         <v>275650.5892708996</v>
       </c>
       <c r="O6" t="n">
-        <v>275650.5892708998</v>
+        <v>275650.5892708997</v>
       </c>
       <c r="P6" t="n">
         <v>275650.5892708995</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790426</v>
+        <v>69.78465283790371</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,10 +26750,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810305</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26823,10 +26823,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.7095836095124</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790426</v>
+        <v>69.78465283790371</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755394</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873761</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758394</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434006</v>
       </c>
       <c r="I8" t="n">
-        <v>199.660320410473</v>
+        <v>199.6603204104731</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.246564378018</v>
+        <v>132.2465643780181</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.6272343036575</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672123</v>
+        <v>84.22861846672126</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987547</v>
+        <v>90.83829126987554</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192291</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241798</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519112</v>
+        <v>84.46220888519119</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990785</v>
+        <v>7.6490350509909</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317085</v>
+        <v>75.62456067317092</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.635114443788</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207385</v>
       </c>
       <c r="T10" t="n">
         <v>227.407904398219</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712633</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075653</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.4955890107569</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49558901075736</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571888</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>11.4955890107577</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571888</v>
+        <v>11.49558901075531</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571888</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185922</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>54.14548214544402</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371105</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="42">
@@ -30618,22 +30618,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G43" t="n">
-        <v>55.47778196371105</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371115</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.14548214544425</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413235</v>
+        <v>0.2805413179413212</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366579</v>
+        <v>2.873093772366557</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993288</v>
+        <v>10.8155691599328</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362242</v>
+        <v>23.81059368362223</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207865</v>
+        <v>35.68590767207836</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102544</v>
+        <v>44.27152403102509</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396445</v>
+        <v>49.26060069396406</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356523</v>
+        <v>50.05768871356484</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832862</v>
+        <v>47.26805598328582</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219660977</v>
+        <v>40.34219219660945</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783611</v>
+        <v>30.29530624783587</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313167</v>
+        <v>17.62255356313154</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587915</v>
+        <v>6.392835282587864</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288144</v>
+        <v>1.228069619288134</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530587</v>
+        <v>0.02244330543530569</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796431</v>
+        <v>0.1501028381796419</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840238</v>
+        <v>1.449677410840226</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693854</v>
+        <v>5.168014384693813</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906883</v>
+        <v>14.18142647906872</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710492</v>
+        <v>24.23831663710473</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264576</v>
+        <v>32.5914079126455</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665781</v>
+        <v>38.03263579665752</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655552</v>
+        <v>39.03924649655521</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360846974</v>
+        <v>35.71328360846945</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449695</v>
+        <v>28.66305863449672</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447515</v>
+        <v>19.160495624475</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767671</v>
+        <v>9.319542882767596</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78809438460872</v>
+        <v>2.788094384608698</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731889999</v>
+        <v>0.6050197731889951</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722344947</v>
+        <v>0.009875186722344869</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486798</v>
+        <v>0.1258411772486788</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11884246681099</v>
+        <v>1.118842466810982</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078481</v>
+        <v>3.784387403078451</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481661</v>
+        <v>8.89697123148159</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489207</v>
+        <v>14.62045677489195</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477191</v>
+        <v>18.70915102477176</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908169</v>
+        <v>19.72617653908153</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115481</v>
+        <v>19.25713215115465</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874977</v>
+        <v>17.78707839874962</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287668</v>
+        <v>15.21991838287656</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852354</v>
+        <v>10.53748257852346</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381547</v>
+        <v>5.658276933381502</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623381</v>
+        <v>2.193068516233792</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625409</v>
+        <v>0.5376850300625365</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564361</v>
+        <v>0.006864064213564306</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019259</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806102</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019256</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806102</v>
@@ -35817,13 +35817,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>795.4045397707656</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>460.545001064921</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>761.4205919064721</v>
       </c>
       <c r="O26" t="n">
-        <v>645.6438810250696</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165843</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>212.5368213938596</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>790.0769918075596</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>203.4751702124573</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>604.4382338939689</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
